--- a/laser.xlsx
+++ b/laser.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study staff\share\arielmichaelshare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8A5B64-FBEB-47B8-819D-383CF52B6AF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F44C37-E1B5-45EA-A8D9-EB4C2D72CCE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6150" activeTab="1" xr2:uid="{CF774BD5-6F56-4B32-9F8F-07EB0020429E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6150" activeTab="4" xr2:uid="{CF774BD5-6F56-4B32-9F8F-07EB0020429E}"/>
   </bookViews>
   <sheets>
     <sheet name="ניסוי 1" sheetId="1" r:id="rId1"/>
     <sheet name="ניסוי 4" sheetId="4" r:id="rId2"/>
     <sheet name="ניסוי 2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="ניסוי 4.6.2" sheetId="3" r:id="rId4"/>
+    <sheet name="ניסוי 4.7" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>עוצמה mW</t>
   </si>
@@ -69,6 +70,45 @@
   </si>
   <si>
     <t>נייר מילימטרי ב135cm</t>
+  </si>
+  <si>
+    <t>מרחק בין סדקים:</t>
+  </si>
+  <si>
+    <t>עובי סדק:</t>
+  </si>
+  <si>
+    <t>0.15mm</t>
+  </si>
+  <si>
+    <t>0.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שם קובץ: </t>
+  </si>
+  <si>
+    <t>two slits 1</t>
+  </si>
+  <si>
+    <t>מרחק מהחיישן:</t>
+  </si>
+  <si>
+    <t>83+-1cm</t>
+  </si>
+  <si>
+    <t>בניסוי סריג מרחק חיישן סריג:</t>
+  </si>
+  <si>
+    <t>1.66+-0.02m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>מרחק בין העדשה לחיישן המצלמה:</t>
+  </si>
+  <si>
+    <t>1.21+-0.02m</t>
   </si>
 </sst>
 </file>
@@ -422,9 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC17291-139B-4EB6-96E5-7D1C93B61912}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -495,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6793518A-BBD6-4FC7-8E7B-AF543C919B4D}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,18 +660,88 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABCB168-E24E-49EA-A99F-8EF65D34DAB4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" width="22.90625" customWidth="1"/>
     <col min="2" max="2" width="16.7265625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83699610-C974-4B3D-907E-F7315C580973}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>